--- a/P6/Datos Lab6.xlsx
+++ b/P6/Datos Lab6.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t xml:space="preserve">2 filtros</t>
   </si>
   <si>
     <t xml:space="preserve">35-40 uW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio de Variable</t>
   </si>
   <si>
     <t xml:space="preserve">θ (°)</t>
@@ -34,17 +37,61 @@
     <t xml:space="preserve">I (mW/cm2)</t>
   </si>
   <si>
+    <t xml:space="preserve">Cos²θ (°)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 filtros</t>
+  </si>
+  <si>
     <t xml:space="preserve">50 uW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cos²θ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedazos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuadrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rectangulars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envío</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedazos Cuadrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedazos Triangulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvaro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -66,6 +113,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -159,8 +214,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -170,6 +229,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -184,12 +247,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -201,6 +276,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCFCFC"/>
+          <bgColor rgb="FF1B1E20"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -225,7 +317,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -264,7 +356,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -320,6 +412,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -438,11 +531,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="20328873"/>
-        <c:axId val="60535739"/>
+        <c:axId val="38984660"/>
+        <c:axId val="27752869"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20328873"/>
+        <c:axId val="38984660"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,7 +569,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -498,7 +591,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60535739"/>
+        <c:crossAx val="27752869"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -506,7 +599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60535739"/>
+        <c:axId val="27752869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -550,7 +643,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -572,7 +665,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20328873"/>
+        <c:crossAx val="38984660"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -599,7 +692,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -644,6 +737,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -726,11 +820,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="2862120"/>
-        <c:axId val="88709452"/>
+        <c:axId val="80495099"/>
+        <c:axId val="40725130"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2862120"/>
+        <c:axId val="80495099"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +858,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -786,7 +880,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88709452"/>
+        <c:crossAx val="40725130"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -794,7 +888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88709452"/>
+        <c:axId val="40725130"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +931,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -859,7 +953,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2862120"/>
+        <c:crossAx val="80495099"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -886,6 +980,410 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I (mW/cm2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2a6099"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="2a6099"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$28:$R$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$28:$S$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2a6099"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="2a6099"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$28:$R$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$28:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="21695032"/>
+        <c:axId val="95115170"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="21695032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Cos²θ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95115170"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95115170"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="7.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>I (mW/cm2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21695032"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -897,9 +1395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>214560</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:colOff>214200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -908,7 +1406,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4353840" y="181080"/>
-        <a:ext cx="5759280" cy="3238560"/>
+        <a:ext cx="5758920" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -927,9 +1425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>214920</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:colOff>214560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -937,8 +1435,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4353840" y="3656160"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="4353840" y="3427560"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -948,7 +1446,74 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>260280</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="17652600" y="3830760"/>
+        <a:ext cx="5762160" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <cdr:relSizeAnchor>
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.00624726682076592</cdr:x>
+      <cdr:y>0.0111049416990561</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="3" name="" descr=""/>
+        <cdr:cNvPicPr/>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="36000" cy="36000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -964,680 +1529,995 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:L53"/>
+  <dimension ref="C2:T55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T39" activeCellId="0" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.55"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="Q2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="5" t="n">
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="Q3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="7" t="n">
         <v>9.82</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5" t="n">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="Q4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7" t="n">
+        <f aca="false">COS(3.1415 *(Q4)/180) ^2</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="7" t="n">
         <v>9.71</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="5" t="n">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="Q5" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q5)/180) ^2</f>
+        <v>0.933016562406832</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>9.71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="7" t="n">
         <v>9.41</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="5" t="n">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="Q6" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q6)/180) ^2</f>
+        <v>0.750013373274518</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="7" t="n">
         <v>9.05</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="5" t="n">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="Q7" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q7)/180) ^2</f>
+        <v>0.50002316339744</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <v>9.05</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="7" t="n">
         <v>8.57</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="5" t="n">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="Q8" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q8)/180) ^2</f>
+        <v>0.250026747264414</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="7" t="n">
         <v>75</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="7" t="n">
         <v>8.21</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="5" t="n">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="Q9" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q9)/180) ^2</f>
+        <v>0.0670066022296902</v>
+      </c>
+      <c r="S9" s="7" t="n">
+        <v>8.21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="7" t="n">
         <v>90</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="7" t="n">
         <v>8.18</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="5" t="n">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="Q10" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q10)/180) ^2</f>
+        <v>2.14617192384968E-009</v>
+      </c>
+      <c r="S10" s="7" t="n">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="7" t="n">
         <v>105</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="7" t="n">
         <v>8.51</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="5" t="n">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="Q11" s="8" t="n">
+        <v>105</v>
+      </c>
+      <c r="R11" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q11)/180) ^2</f>
+        <v>0.0669602766739584</v>
+      </c>
+      <c r="S11" s="7" t="n">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="7" t="n">
         <v>120</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="7" t="n">
         <v>8.7</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="5" t="n">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="Q12" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="R12" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q12)/180) ^2</f>
+        <v>0.249946508332836</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="7" t="n">
         <v>135</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="7" t="n">
         <v>9.17</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="5" t="n">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="Q13" s="8" t="n">
+        <v>135</v>
+      </c>
+      <c r="R13" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q13)/180) ^2</f>
+        <v>0.499930509807879</v>
+      </c>
+      <c r="S13" s="7" t="n">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="7" t="n">
         <v>9.45</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="5" t="n">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="Q14" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="R14" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q14)/180) ^2</f>
+        <v>0.749933130050711</v>
+      </c>
+      <c r="S14" s="7" t="n">
+        <v>9.45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="7" t="n">
         <v>165</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="7" t="n">
         <v>9.93</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="5" t="n">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="Q15" s="8" t="n">
+        <v>165</v>
+      </c>
+      <c r="R15" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q15)/180) ^2</f>
+        <v>0.932970229416675</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7" t="n">
         <v>180</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="7" t="n">
         <v>9.98</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="Q16" s="8" t="n">
+        <v>180</v>
+      </c>
+      <c r="R16" s="9" t="n">
+        <f aca="false">COS(3.1415 *(Q16)/180) ^2</f>
+        <v>0.999999991415312</v>
+      </c>
+      <c r="S16" s="7" t="n">
+        <v>9.98</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="7" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="Q27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="Q28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="Q29" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="R29" s="9" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="S29" s="7" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="T29" s="7" t="n">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="Q30" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="R30" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S30" s="7" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="T30" s="7" t="n">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="Q31" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="R31" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S31" s="7" t="n">
+        <v>9.05</v>
+      </c>
+      <c r="T31" s="7" t="n">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="Q32" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="R32" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S32" s="7" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="T32" s="7" t="n">
+        <v>9.45</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="Q33" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="R33" s="9" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="S33" s="7" t="n">
+        <v>9.71</v>
+      </c>
+      <c r="T33" s="7" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="Q34" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="R34" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="7" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="T34" s="7" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="Q35" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="Q36" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="Q37" s="8" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="Q38" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="R38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="Q39" s="8" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="Q40" s="8" t="n">
+        <v>180</v>
+      </c>
+      <c r="R40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="Q49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="P50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <f aca="false">15000</f>
+        <v>15000</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <f aca="false">R50/Q50</f>
+        <v>468.75</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="P51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <f aca="false">12000</f>
+        <v>12000</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <f aca="false">R51/Q51</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="P52" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <f aca="false">Q52/16</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P55" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="R55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <f aca="false">Q55*$S$50+R55*$S$51+$S$52</f>
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
